--- a/src/data/output/athletes_updated.xlsx
+++ b/src/data/output/athletes_updated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,31 @@
           <t>Phone</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>instagram</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>facebook</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +511,27 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>sales@sportingservices.co.uk</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(903) 248-5247</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://twitter.com/swadeedaws</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/swade_32/</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -503,6 +549,31 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>.mp@parliament.uk</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(653) 045-5291</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://twitter.com/dillonclee</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/dillonandclimbing/</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/dillon.lee.3954546/</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +591,31 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>jonathan4rice@gmail.com</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(255) 240-9279</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://twitter.com/riceallen</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jonrice25/</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/jonathan.rice.148/</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -537,6 +633,23 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(939) 684-4564</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://twitter.com/tyrellshavers</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/tyrell.shavers/</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +667,27 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(204) 002-7554</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://twitter.com/seanskehan5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/danielchanhoyuen/</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/daniel.skehan.9/</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -571,6 +705,27 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(718) 175-1214</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://twitter.com/chadarius</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/chadariusss/</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/chadarius.townsend.3/</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -588,6 +743,19 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(658) 810-3441</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/irvsmithjr/</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -605,6 +773,27 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(558) 610-0623</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://twitter.com/johnny_tennison</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/johntennison/</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/tennison.titcomb/</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -622,6 +811,31 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>gilesmamos@gmail.com</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(332) 905-4120</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://twitter.com/_amos_amos</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/gilesvamos/</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/giles.allison.3532/</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -639,6 +853,31 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>hbryant@mhu.edu</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(956) 485-2183</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://twitter.com/hunterbryant5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/techarthunter/</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/hunterbryant/</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -656,6 +895,27 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>(286) 019-9146</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://twitter.com/goodmansean</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sean84goodman/</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/rosemarysean.goodman/</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -673,6 +933,31 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>joseph@classicfootballshirts.co.uk</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>(502) 359-3713</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://twitter.com/josephharvey01</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/joseph.harvey.5832/</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/josepheugene.harveyiii/</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -690,6 +975,31 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>info.educ@ubc.ca</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>(701) 393-3954</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://twitter.com/kendrickjames9</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/kedrick.james/</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/jameskendrick86/</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -707,6 +1017,31 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>jacobparkermorgan@gmail.com</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>(219) 358-7973</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://twitter.com/jacob_mparker</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/jacob_parker_jp/</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/jacob.parker.75054/</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -724,6 +1059,27 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>admissions@cam.ac.uk</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>(620) 488-0553</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://twitter.com/camstewart1527</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/cam_stewart__/</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -741,6 +1097,27 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>elliotbaker@zoho.com</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>(896) 144-5748</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://twitter.com/elliotbaker4</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/elliot.baker/</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -758,6 +1135,23 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>n@gmail.com</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>(366) 244-4023</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bsboze/</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -775,6 +1169,23 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>(181) 855-0815</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://twitter.com/brannon_hunter</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/hunter_brannon14/</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -792,6 +1203,31 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>dtbrown@admin.fsu.edu</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>(268) 639-3891</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://twitter.com/playboideonte</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/deonte_brown_/</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/deonte.brown.79274/</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
